--- a/public/assets/MonthlyReportSample3test.xlsx
+++ b/public/assets/MonthlyReportSample3test.xlsx
@@ -353,8 +353,8 @@
   </sheetPr>
   <dimension ref="A1:AM2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T9" activeCellId="1" sqref="R:R T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -362,7 +362,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.54"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -481,7 +481,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>39</v>
       </c>

--- a/public/assets/MonthlyReportSample3test.xlsx
+++ b/public/assets/MonthlyReportSample3test.xlsx
@@ -79,7 +79,7 @@
     <t xml:space="preserve">Test Kit Name1</t>
   </si>
   <si>
-    <t xml:space="preserve">Lot No 1</t>
+    <t xml:space="preserve">Lot No. 1</t>
   </si>
   <si>
     <t xml:space="preserve">Expiry Date 1</t>
@@ -97,7 +97,7 @@
     <t xml:space="preserve">Test Kit Name2</t>
   </si>
   <si>
-    <t xml:space="preserve">Lot No 2</t>
+    <t xml:space="preserve">Lot No. 2</t>
   </si>
   <si>
     <t xml:space="preserve">Expiry Date 2</t>
@@ -115,7 +115,7 @@
     <t xml:space="preserve">Test Kit Name3</t>
   </si>
   <si>
-    <t xml:space="preserve">Lot No 3</t>
+    <t xml:space="preserve">Lot No. 3</t>
   </si>
   <si>
     <t xml:space="preserve">Expiry Date 3</t>
@@ -336,33 +336,30 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AM2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T9" activeCellId="1" sqref="R:R T9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AC1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AF1" activeCellId="0" sqref="AF1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.54"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>

--- a/public/assets/MonthlyReportSample3test.xlsx
+++ b/public/assets/MonthlyReportSample3test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
   <si>
     <t xml:space="preserve">Test Site</t>
   </si>
@@ -28,9 +28,6 @@
     <t xml:space="preserve">Site Type</t>
   </si>
   <si>
-    <t xml:space="preserve">Facility</t>
-  </si>
-  <si>
     <t xml:space="preserve">Province </t>
   </si>
   <si>
@@ -143,9 +140,6 @@
   </si>
   <si>
     <t xml:space="preserve">Test Site Type1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Facility name 1</t>
   </si>
   <si>
     <t xml:space="preserve">Eastern</t>
@@ -351,13 +345,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AM2"/>
+  <dimension ref="A1:AL2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AC1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AF1" activeCellId="0" sqref="AF1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -378,7 +372,7 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -420,7 +414,7 @@
       <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
@@ -429,7 +423,7 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
       <c r="Y1" s="2" t="s">
@@ -438,7 +432,7 @@
       <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AB1" s="1" t="s">
@@ -447,7 +441,7 @@
       <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
       <c r="AE1" s="2" t="s">
@@ -456,7 +450,7 @@
       <c r="AF1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
       <c r="AH1" s="1" t="s">
@@ -473,126 +467,120 @@
       </c>
       <c r="AL1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="K2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="L2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="7" t="s">
+      <c r="M2" s="8" t="n">
+        <v>123</v>
+      </c>
+      <c r="N2" s="8"/>
+      <c r="O2" s="7" t="n">
+        <v>23</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="R2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="S2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="U2" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="W2" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y2" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA2" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="8" t="n">
-        <v>123</v>
-      </c>
-      <c r="O2" s="8"/>
-      <c r="P2" s="7" t="n">
-        <v>23</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="V2" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" s="7" t="n">
+      <c r="AE2" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG2" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="X2" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z2" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA2" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB2" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF2" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG2" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH2" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="7" t="n">
-        <v>0</v>
-      </c>
       <c r="AL2" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM2" s="7" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/public/assets/MonthlyReportSample3test.xlsx
+++ b/public/assets/MonthlyReportSample3test.xlsx
@@ -348,10 +348,10 @@
   <dimension ref="A1:AL2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
